--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
